--- a/Akari/Excel/UIForm.xlsx
+++ b/Akari/Excel/UIForm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\2020.11.27-SAN\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\MyGithub\AkariARPG\Akari\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4A1904-C679-41FC-AD75-4111034B5ED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF74779-3E94-4205-992C-B448BB51E1DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10755" yWindow="5610" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24495" yWindow="2190" windowWidth="14280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -547,7 +547,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -556,7 +556,7 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1001</v>

--- a/Akari/Excel/UIForm.xlsx
+++ b/Akari/Excel/UIForm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\MyGithub\AkariARPG\Akari\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF74779-3E94-4205-992C-B448BB51E1DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB33D16-1997-4B93-B18F-EE15A71647A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24495" yWindow="2190" windowWidth="14280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="4770" windowWidth="18600" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,100 +25,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+  <si>
+    <t>AllowMultiInstance</t>
+  </si>
+  <si>
+    <t>PauseCoveredUIForm</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>是否暂停被其覆盖的界面</t>
+  </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面配置表</t>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面配置表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetName</t>
+  </si>
+  <si>
+    <t>UIGroupName</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>界面编号</t>
   </si>
   <si>
     <t>策划备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIGroupId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AssetId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllowMultiInstance</t>
-  </si>
-  <si>
-    <t>PauseCoveredUIForm</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面组Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称</t>
+  </si>
+  <si>
+    <t>界面组名称</t>
   </si>
   <si>
     <t>是否允许多个界面实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否暂停被其覆盖的界面</t>
   </si>
   <si>
     <t>主菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIMainMenuForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIMainMenu</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>UISetting</t>
+  </si>
+  <si>
+    <t>关于</t>
+  </si>
+  <si>
+    <t>UIAbout</t>
+  </si>
+  <si>
+    <t>加载界面</t>
+  </si>
+  <si>
+    <t>UILoading</t>
+  </si>
+  <si>
+    <t>弹出框</t>
+  </si>
+  <si>
+    <t>UIDialogForm</t>
+  </si>
+  <si>
+    <t>主游戏界面</t>
+  </si>
+  <si>
+    <t>UIMainGame</t>
+  </si>
+  <si>
+    <t>血条画布</t>
+  </si>
+  <si>
+    <t>UIHPBarCanvas</t>
+  </si>
+  <si>
+    <t>HPCanvas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,13 +139,6 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -446,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -462,109 +464,217 @@
     <col min="8" max="8" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1001</v>
-      </c>
-      <c r="G5" t="b">
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="b">
         <v>0</v>
       </c>
-      <c r="H5" t="b">
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
         <v>1</v>
       </c>
     </row>
